--- a/TC_FBL.xlsx
+++ b/TC_FBL.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,39 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000066CC"/>
+        <bgColor rgb="000066CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000CCFF"/>
+        <bgColor rgb="0000CCFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +65,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +452,4341 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>XXX Component</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Test Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Test Response</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Teststep keywords</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ObjectType</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>TestStatus</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Project</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>TestResult</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>ID_2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>1 FBL</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>ID_3</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>1.1 Base SW to Latest SW M3</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>ID_4</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>1.1.1 Flash Base SW via UART</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>ID_5</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>1.1.1.1 Flash SW</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ID_6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1 UART flash GAC_A79 BL03V7</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Detail information is mentioned in the ticket: FVVGACASN-410</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1) Flash Base Software GAC_A79 BL03V7 via UART successful</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1) TesterConfirm('Do you flash base software GAC_A79 BL03V7 via UART ?')</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>ID_7</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>1.1.1.2 Variant and Software  Identification</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ID_8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.1.1.2.1 Select_and_check_variant</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>To Select and check variant</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1) Tester Present is ON
+2) Change to Extended session with Service 0x10 03
+3) wait
+4) Select variant
+5) Check variant</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1) -
+2) -
+3) -
+4) -
+5) -</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1) envvar(EnvTesterPresentOnOff(1;0))
+2) RequestResponse(1003, 5003.*, Regexp)
+3) wait(1000)
+4) RequestResponse(2e010101, 6e0101, Equal)
+5) RequestResponse(220101, 62010101, Equal)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ID_9</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.1.1.2.2 F195 Supplier Software number</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>To check value of the DID F195 in Application</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F195 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f195,62f195424c30335637.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ID_10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.2.3 F180 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>To check value of the DID F180 in Application</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F180 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f180,62f180383534303030394352563031422e303030.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ID_11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.2.4 F181 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>To check value of the DID F181 in Application</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F181 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f181,62f181383534303030394352563031412e433031.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ID_12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1.1.1.2.5 F187 Part Number</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>To check value of the DID F187 in Application</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F187 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f187,62f1873835343030303943525630313030.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ID_13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1.1.1.2.6 F189 ECUSoftwareVersionNumberDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>To check value of the DID F189 in Application</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F189 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f189,62f189383738484352563030302020532e433031.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ID_14</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.2.7 F17F </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>To check value of the DID F17F in Application</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F17F using physical addressing</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f17f,62f17f383748484352563030302020482e303030.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ID_15</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.2.8 F1B2 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>To check value of the DID F1B2 in Application</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F1B2 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f1b2,62f1b2383534303030394352563031432e433030.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ID_16</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.2.9 F1DE </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>To check value of the DID F1DE in RBEOL</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1) Access to RBEOL
+2) Unlock RBEOL
+3) Wait 5s
+4) Send service 0x22 to the camera for the DID F1DE using physical addressing
+5) Reset ECU
+6) Wait 3s
+7) Send 1001
+8) Wait 3s</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) -</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))
+2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))
+3) wait(5000)
+4) RequestResponse(22f1de,62f1de303430303034303030323230533030303533.*, Regexp)
+5) RequestResponse(1101, 5101, Equal)
+6) wait(3000)
+7) RequestResponse(1001, 5001.*, Regexp)
+8) wait(3000)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>ID_17</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>1.1.1.3 Programming Counter and Programming Attempt Counter</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ID_18</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1.1.1.3.1 0200_ProgrammingCounter</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0200</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0200 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220200, 620200.*0, Regexp)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ID_19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1.1.1.3.2 0201_ProgrammingAttemptCounter</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0201</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0201 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220201, 620201.*0, Regexp)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>ID_20</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>1.1.1.4 DID in RBEOL</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ID_21</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1.1.1.4.1 Check DID in RBEOL</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>To check value of the DID F1E0, F1DD, 4255, 4259</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1) Access to RBEOL
+2) Unlock RBEOL
+3) Wait 5s
+4) Send service 0x22 to the camera for the DID F1E0
+5) Send service 0x22 to the camera for the DID F1DD
+6) Send service 0x22 to the camera for the DID 4255
+7) Send service 0x22 to the camera for the DID 4259
+8) Reset ECU
+9) Wait 3s
+10) Send 1001
+11) Wait 3s
+12) Reset ECU</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) -
+9) -
+10) -
+11) -
+12) -</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))
+2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))
+3) wait(5000)
+4) RequestResponse(22f1e0,62f1e0.*3,Regexp)
+5) RequestResponse(22f1dd,62f1dd.*,Regexp)
+6) RequestResponse(224255,624255.*,Regexp)
+7) RequestResponse(224259,624259.*,Regexp)
+8) RequestResponse(1101, 5101, Equal)
+9) wait(3000)
+10) RequestResponse(1001, 5001.*, Regexp)
+11) wait(3000)
+12) RequestResponse(1101, 5101, Equal)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>ID_22</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>1.1.2 Re-Flash Latest SW M3 via X-Flash 1st</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>ID_23</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>1.1.2.1 Flash SW</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ID_24</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1.1.2.1.1 Xflash GAC_A79 BL03V8</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Detail information is mentioned in the ticket: FVVGACASN-410</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1) Flash Latest Software GAC_A79 BL03V8 via IFLASH successful</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1) TesterConfirm('Do you flash latest software GAC_A79 BL03V8 via IFLASH ?')</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>ID_25</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>1.1.2.2 Variant and Software  Identification</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ID_26</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1.1.2.2.1 Select_and_check_variant</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>To Select and check variant</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1) Tester Present is ON
+2) Change to Extended session with Service 0x10 03
+3) wait
+4) Select variant
+5) Check variant</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1) -
+2) -
+3) -
+4) -
+5) -</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1) envvar(EnvTesterPresentOnOff(1;0))
+2) RequestResponse(1003, 5003.*, Regexp)
+3) wait(1000)
+4) RequestResponse(2e010101, 6e0101, Equal)
+5) RequestResponse(220101, 62010101, Equal)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ID_27</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1.1.2.2.2 F195 Supplier Software number</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>To check value of the DID F195</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F195 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f195,62f195424c30335638.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ID_28</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.2.2.3 F180 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>To check value of the DID F180</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F180 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f180,62f180383534303030394352563031422e303030.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ID_29</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.2.2.4 F181 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>To check value of the DID F181</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F181 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f181,62f181383534303030394352563031412e433031.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ID_30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1.1.2.2.5 F187 Part Number</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>To check value of the DID F187</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F187 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f187,62f1873835343030303943525630313030.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ID_31</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1.1.2.2.6 F189 ECUSoftwareVersionNumberDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>To check value of the DID F189</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F189 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f189,62f189383738484352563030302020532e433031.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ID_32</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.2.2.7 F17F </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>To check value of the DID F17F</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F17F using physical addressing</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f17f,62f17f383748484352563030302020482e303030.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ID_33</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.2.2.8 F1B2 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>To check value of the DID F1B2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F1B2 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f1b2,62f1b2383534303030394352563031432e433030.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ID_34</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.2.2.9 F1DE </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>To check value of the DID F1DE in RBEOL</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1) Access to RBEOL
+2) Unlock RBEOL
+3) Wait 5s
+4) Send service 0x22 to the camera for the DID F1DE using physical addressing
+5) Reset ECU
+6) Wait 3s
+7) Send 1001
+8) Wait 3s</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) -</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))
+2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))
+3) wait(5000)
+4) RequestResponse(22f1de,62f1de303430303034303030323230533030303533.*, Regexp)
+5) RequestResponse(1101, 5101, Equal)
+6) wait(3000)
+7) RequestResponse(1001, 5001.*, Regexp)
+8) wait(3000)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>ID_35</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>1.1.2.3 Programming Counter and Programming Attempt Counter</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ID_36</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1.1.2.3.1 0200_ProgrammingCounter</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0200</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0200 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220200, 620200.*1, Regexp)</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ID_37</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1.1.2.3.2 0201_ProgrammingAttemptCounter</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0201</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0201 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220201, 620201.*1, Regexp)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>ID_38</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>1.1.2.4 DID in RBEOL</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ID_39</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1.1.2.4.1 Check DID in RBEOL</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>To check value of the DID F1E0, F1DD, 4255, 4259</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1) Access to RBEOL
+2) Unlock RBEOL
+3) Wait 5s
+4) Send service 0x22 to the camera for the DID F1E0
+5) Send service 0x22 to the camera for the DID F1DD
+6) Send service 0x22 to the camera for the DID 4255
+7) Send service 0x22 to the camera for the DID 4259
+8) Reset ECU
+9) Wait 3s
+10) Send 1001
+11) Wait 3s
+12) Reset ECU</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) -
+9) -
+10) -
+11) -
+12) -</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))
+2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))
+3) wait(5000)
+4) RequestResponse(22f1e0,62f1e0.*3,Regexp)
+5) RequestResponse(22f1dd,62f1dd.*,Regexp)
+6) RequestResponse(224255,624255.*,Regexp)
+7) RequestResponse(224259,624259.*,Regexp)
+8) RequestResponse(1101, 5101, Equal)
+9) wait(3000)
+10) RequestResponse(1001, 5001.*, Regexp)
+11) wait(3000)
+12) RequestResponse(1101, 5101, Equal)</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>ID_40</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>1.2 Base SW to Latest SW M5</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr"/>
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>ID_41</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>1.2.1 Flash Base SW via UART</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr"/>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>ID_42</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>1.2.1.1 Flash SW</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr"/>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ID_43</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1.2.1.1.1 UART flash GAC_A79 BL03V7</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Detail information is mentioned in the ticket: FVVGACASN-410</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1) Flash Base Software GAC_A79 BL03V7 via UART successful</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1) TesterConfirm(''Do you flash base software GAC_A79 BL03V7 via UART ?')</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>ID_44</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>1.2.1.2 Variant and Software  Identification</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="inlineStr"/>
+      <c r="E44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr"/>
+      <c r="I44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ID_45</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1.2.1.2.1 Select_and_check_variant</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>To Select and check variant</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1) Tester Present is ON
+2) Change to Extended session with Service 0x10 03
+3) wait
+4) Select variant
+5) Check variant</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1) -
+2) -
+3) -
+4) -
+5) -</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1) envvar(EnvTesterPresentOnOff(1;0))
+2) RequestResponse(1003, 5003.*, Regexp)
+3) wait(1000)
+4) RequestResponse(2e010101, 6e0101, Equal)
+5) RequestResponse(220101, 62010101, Equal)</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ID_46</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1.2.1.2.2 F195 Supplier Software number</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>To check value of the DID F195 in Application</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F195 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f195,62f195424c30335637.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ID_47</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.1.2.3 F180 </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>To check value of the DID F180 in Application</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F180 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f180,62f180383534303030394352563031422e303030.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ID_48</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.1.2.4 F181 </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>To check value of the DID F181 in Application</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F181 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f181,62f181383534303030394352563031412e433031.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ID_49</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1.2.1.2.5 F187 Part Number</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>To check value of the DID F187 in Application</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F187 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f187,62f1873835343030303943525630313030.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ID_50</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1.2.1.2.6 F189 ECUSoftwareVersionNumberDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>To check value of the DID F189 in Application</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F189 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f189,62f189383738484352563030302020532e433031.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ID_51</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.1.2.7 F17F </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>To check value of the DID F17F in Application</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F17F using physical addressing</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f17f,62f17f383748484352563030302020482e303030.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ID_52</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.1.2.8 F1B2 </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>To check value of the DID F1B2 in Application</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F1B2 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f1b2,62f1b2383534303030394352563031432e433030.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ID_53</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.1.2.9 F1DE </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>To check value of the DID F1DE in RBEOL</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1) Access to RBEOL
+2) Unlock RBEOL
+3) Wait 5s
+4) Send service 0x22 to the camera for the DID F1DE using physical addressing
+5) Reset ECU
+6) Wait 3s
+7) Send 1001
+8) Wait 3s</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) -</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))
+2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))
+3) wait(5000)
+4) RequestResponse(22f1de,62f1de303430303034303030323230533030303533.*, Regexp)
+5) RequestResponse(1101, 5101, Equal)
+6) wait(3000)
+7) RequestResponse(1001, 5001.*, Regexp)
+8) wait(3000)</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>ID_54</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>1.2.1.3 Programming Counter and Programming Attempt Counter</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr"/>
+      <c r="D54" s="2" t="inlineStr"/>
+      <c r="E54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr"/>
+      <c r="J54" s="2" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ID_55</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1.2.1.3.1 0200_ProgrammingCounter</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0200</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0200 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220200, 620200.*0, Regexp)</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ID_56</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1.2.1.3.2 0201_ProgrammingAttemptCounter</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0201</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0201 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220201, 620201.*0, Regexp)</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>ID_57</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>1.2.1.4 DID in RBEOL</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr"/>
+      <c r="D57" s="2" t="inlineStr"/>
+      <c r="E57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ID_58</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1.2.1.4.1 Check DID in RBEOL</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>To check value of the DID F1E0, F1DD, 4255, 4259</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1) Access to RBEOL
+2) Unlock RBEOL
+3) Wait 5s
+4) Send service 0x22 to the camera for the DID F1E0
+5) Send service 0x22 to the camera for the DID F1DD
+6) Send service 0x22 to the camera for the DID 4255
+7) Send service 0x22 to the camera for the DID 4259
+8) Reset ECU
+9) Wait 3s
+10) Send 1001
+11) Wait 3s
+12) Reset ECU</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) -
+9) -
+10) -
+11) -
+12) -</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))
+2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))
+3) wait(5000)
+4) RequestResponse(22f1e0,62f1e0.*3,Regexp)
+5) RequestResponse(22f1dd,62f1dd.*,Regexp)
+6) RequestResponse(224255,624255.*,Regexp)
+7) RequestResponse(224259,624259.*,Regexp)
+8) RequestResponse(1101, 5101, Equal)
+9) wait(3000)
+10) RequestResponse(1001, 5001.*, Regexp)
+11) wait(3000)
+12) RequestResponse(1101, 5101, Equal)</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>ID_59</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>1.2.2 Re-Flash Latest SW M5 via X-Flash 1st</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr"/>
+      <c r="D59" s="2" t="inlineStr"/>
+      <c r="E59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr"/>
+      <c r="I59" s="2" t="inlineStr"/>
+      <c r="J59" s="2" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>ID_60</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>1.2.2.1 Flash SW</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr"/>
+      <c r="D60" s="2" t="inlineStr"/>
+      <c r="E60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr"/>
+      <c r="J60" s="2" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ID_61</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1.2.2.1.1 Xflash GAC_A79 BL03V8</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Detail information is mentioned in the ticket: FVVGACASN-410</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1) Flash Latest Software GAC_A79 BL03V8 via IFLASH successful</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1) TesterConfirm('Do you flash latest software GAC_A79 BL03V8 via IFLASH ?')</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>ID_62</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>1.2.2.2 Variant and Software  Identification</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr"/>
+      <c r="D62" s="2" t="inlineStr"/>
+      <c r="E62" s="2" t="inlineStr"/>
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="inlineStr"/>
+      <c r="J62" s="2" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ID_63</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1.2.2.2.1 Select_and_check_variant</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>To Select and check variant</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1) Tester Present is ON
+2) Change to Extended session with Service 0x10 03
+3) wait
+4) Select variant
+5) Check variant</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1) -
+2) -
+3) -
+4) -
+5) -</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1) envvar(EnvTesterPresentOnOff(1;0))
+2) RequestResponse(1003, 5003.*, Regexp)
+3) wait(1000)
+4) RequestResponse(2e010101, 6e0101, Equal)
+5) RequestResponse(220101, 62010101, Equal)</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ID_64</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1.2.2.2.2 F195 Supplier Software number</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>To check value of the DID F195</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F195 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f195,62f195424c30335638.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ID_65</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.2.2.3 F180 </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>To check value of the DID F180</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F180 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f180,62f180383534303030394352563031422e303030.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ID_66</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.2.2.4 F181 </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>To check value of the DID F181</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F181 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f181,62f181383534303030394352563031412e433031.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ID_67</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1.2.2.2.5 F187 Part Number</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>To check value of the DID F187</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F187 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f187,62f1873835343030303943525630313030.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ID_68</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1.2.2.2.6 F189 ECUSoftwareVersionNumberDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>To check value of the DID F189</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F189 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f189,62f189383738484352563030302020532e433031.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ID_69</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.2.2.7 F17F </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>To check value of the DID F17F</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F17F using physical addressing</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f17f,62f17f383748484352563030302020482e303030.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ID_70</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.2.2.8 F1B2 </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>To check value of the DID F1B2</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F1B2 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f1b2,62f1b2383534303030394352563031432e433030.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ID_71</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.2.2.9 F1DE </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>To check value of the DID F1DE in RBEOL</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1) Access to RBEOL
+2) Unlock RBEOL
+3) Wait 5s
+4) Send service 0x22 to the camera for the DID F1DE using physical addressing
+5) Reset ECU
+6) Wait 3s
+7) Send 1001
+8) Wait 3s</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) -</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))
+2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))
+3) wait(5000)
+4) RequestResponse(22f1de,62f1de303430303034303030323230533030303533.*, Regexp)
+5) RequestResponse(1101, 5101, Equal)
+6) wait(3000)
+7) RequestResponse(1001, 5001.*, Regexp)
+8) wait(3000)</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>ID_72</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>1.2.2.3 Programming Counter and Programming Attempt Counter</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr"/>
+      <c r="D72" s="2" t="inlineStr"/>
+      <c r="E72" s="2" t="inlineStr"/>
+      <c r="F72" s="2" t="inlineStr"/>
+      <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr"/>
+      <c r="I72" s="2" t="inlineStr"/>
+      <c r="J72" s="2" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ID_73</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1.2.2.3.1 0200_ProgrammingCounter</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0200</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0200 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220200, 620200.*1, Regexp)</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ID_74</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1.2.2.3.2 0201_ProgrammingAttemptCounter</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0201</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0201 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220201, 620201.*1, Regexp)</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>ID_75</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>1.2.2.4 DID in RBEOL</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr"/>
+      <c r="D75" s="2" t="inlineStr"/>
+      <c r="E75" s="2" t="inlineStr"/>
+      <c r="F75" s="2" t="inlineStr"/>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="inlineStr"/>
+      <c r="I75" s="2" t="inlineStr"/>
+      <c r="J75" s="2" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ID_76</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1.2.2.4.1 Check DID in RBEOL</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>To check value of the DID F1E0, F1DD, 4255, 4259</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1) Access to RBEOL
+2) Unlock RBEOL
+3) Wait 5s
+4) Send service 0x22 to the camera for the DID F1E0
+5) Send service 0x22 to the camera for the DID F1DD
+6) Send service 0x22 to the camera for the DID 4255
+7) Send service 0x22 to the camera for the DID 4259
+8) Reset ECU
+9) Wait 3s
+10) Send 1001
+11) Wait 3s
+12) Reset ECU</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) -
+9) -
+10) -
+11) -
+12) -</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))
+2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))
+3) wait(5000)
+4) RequestResponse(22f1e0,62f1e0.*5,Regexp)
+5) RequestResponse(22f1dd,62f1dd.*,Regexp)
+6) RequestResponse(224255,624255.*,Regexp)
+7) RequestResponse(224259,624259.*,Regexp)
+8) RequestResponse(1101, 5101, Equal)
+9) wait(3000)
+10) RequestResponse(1001, 5001.*, Regexp)
+11) wait(3000)
+12) RequestResponse(1101, 5101, Equal)</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>ID_77</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>1.2.3 Re-Flash Latest SW M3 via X-Flash 2nd</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr"/>
+      <c r="D77" s="2" t="inlineStr"/>
+      <c r="E77" s="2" t="inlineStr"/>
+      <c r="F77" s="2" t="inlineStr"/>
+      <c r="G77" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="inlineStr"/>
+      <c r="I77" s="2" t="inlineStr"/>
+      <c r="J77" s="2" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>ID_78</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>1.2.3.1 Flash SW</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr"/>
+      <c r="D78" s="2" t="inlineStr"/>
+      <c r="E78" s="2" t="inlineStr"/>
+      <c r="F78" s="2" t="inlineStr"/>
+      <c r="G78" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H78" s="2" t="inlineStr"/>
+      <c r="I78" s="2" t="inlineStr"/>
+      <c r="J78" s="2" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ID_79</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1.2.3.1.1 Xflash GAC_A79 BL03V8</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Detail information is mentioned in the ticket: FVVGACASN-410</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1) Flash Latest Software GAC_A79 BL03V8 via IFLASH successful</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1) TesterConfirm('Do you flash latest software GAC_A79 BL03V8 via IFLASH ?')</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>ID_80</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>1.2.3.2 Variant and Software  Identification</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr"/>
+      <c r="D80" s="2" t="inlineStr"/>
+      <c r="E80" s="2" t="inlineStr"/>
+      <c r="F80" s="2" t="inlineStr"/>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="inlineStr"/>
+      <c r="I80" s="2" t="inlineStr"/>
+      <c r="J80" s="2" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ID_81</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1.2.3.2.1 Select_and_check_variant</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>To Select and check variant</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1) Tester Present is ON
+2) Change to Extended session with Service 0x10 03
+3) wait
+4) Select variant
+5) Check variant</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1) -
+2) -
+3) -
+4) -
+5) -</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1) envvar(EnvTesterPresentOnOff(1;0))
+2) RequestResponse(1003, 5003.*, Regexp)
+3) wait(1000)
+4) RequestResponse(2e010101, 6e0101, Equal)
+5) RequestResponse(220101, 62010101, Equal)</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ID_82</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1.2.3.2.2 F195 Supplier Software number</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>To check value of the DID F195</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F195 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f195,62f195424c30335638.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ID_83</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.3.2.3 F180 </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>To check value of the DID F180</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F180 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f180,62f180383534303030394352563031422e303030.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ID_84</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.3.2.4 F181 </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>To check value of the DID F181</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F181 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f181,62f181383534303030394352563031412e433031.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ID_85</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1.2.3.2.5 F187 Part Number</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>To check value of the DID F187</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F187 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f187,62f1873835343030303943525630313030.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ID_86</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1.2.3.2.6 F189 ECUSoftwareVersionNumberDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>To check value of the DID F189</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F189 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f189,62f189383738484352563030302020532e433031.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ID_87</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.3.2.7 F17F </t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>To check value of the DID F17F</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F17F using physical addressing</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f17f,62f17f383748484352563030302020482e303030.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ID_88</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.3.2.8 F1B2 </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>To check value of the DID F1B2</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F1B2 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f1b2,62f1b2383534303030394352563031432e433030.*, Regexp)</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ID_89</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.3.2.9 F1DE </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>To check value of the DID F1DE in RBEOL</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1) Access to RBEOL
+2) Unlock RBEOL
+3) Wait 5s
+4) Send service 0x22 to the camera for the DID F1DE using physical addressing
+5) Reset ECU
+6) Wait 3s
+7) Send 1001
+8) Wait 3s</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) -</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))
+2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))
+3) wait(5000)
+4) RequestResponse(22f1de,62f1de303430303034303030323230533030303533.*, Regexp)
+5) RequestResponse(1101, 5101, Equal)
+6) wait(3000)
+7) RequestResponse(1001, 5001.*, Regexp)
+8) wait(3000)</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>ID_90</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>1.2.3.3 Programming Counter and Programming Attempt Counter</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr"/>
+      <c r="D90" s="2" t="inlineStr"/>
+      <c r="E90" s="2" t="inlineStr"/>
+      <c r="F90" s="2" t="inlineStr"/>
+      <c r="G90" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="inlineStr"/>
+      <c r="I90" s="2" t="inlineStr"/>
+      <c r="J90" s="2" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ID_91</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1.2.3.3.1 0200_ProgrammingCounter</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0200</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0200 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220200, 620200.*2, Regexp)</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ID_92</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1.2.3.3.2 0201_ProgrammingAttemptCounter</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0201</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0201 using physical addressing</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1) -</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220201, 620201.*2, Regexp)</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>ID_93</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>1.2.3.4 DID in RBEOL</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr"/>
+      <c r="D93" s="2" t="inlineStr"/>
+      <c r="E93" s="2" t="inlineStr"/>
+      <c r="F93" s="2" t="inlineStr"/>
+      <c r="G93" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="inlineStr"/>
+      <c r="I93" s="2" t="inlineStr"/>
+      <c r="J93" s="2" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ID_94</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1.2.3.4.1 Check DID in RBEOL</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>To check value of the DID F1E0, F1DD, 4255, 4259</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1) Access to RBEOL
+2) Unlock RBEOL
+3) Wait 5s
+4) Send service 0x22 to the camera for the DID F1E0
+5) Send service 0x22 to the camera for the DID F1DD
+6) Send service 0x22 to the camera for the DID 4255
+7) Send service 0x22 to the camera for the DID 4259
+8) Reset ECU
+9) Wait 3s
+10) Send 1001
+11) Wait 3s
+12) Reset ECU</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) -
+9) -
+10) -
+11) -
+12) -</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))
+2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))
+3) wait(5000)
+4) RequestResponse(22f1e0,62f1e0.*3,Regexp)
+5) RequestResponse(22f1dd,62f1dd.*,Regexp)
+6) RequestResponse(224255,624255.*,Regexp)
+7) RequestResponse(224259,624259.*,Regexp)
+8) RequestResponse(1101, 5101, Equal)
+9) wait(3000)
+10) RequestResponse(1001, 5001.*, Regexp)
+11) wait(3000)
+12) RequestResponse(1101, 5101, Equal)</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>ID_95</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>1.3 SESSION TRANSITION</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr"/>
+      <c r="D95" s="2" t="inlineStr"/>
+      <c r="E95" s="2" t="inlineStr"/>
+      <c r="F95" s="2" t="inlineStr"/>
+      <c r="G95" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="inlineStr"/>
+      <c r="I95" s="2" t="inlineStr"/>
+      <c r="J95" s="2" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ID_96</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1.3.1 Default SS to Extended SS directly and vice versa</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Default SS to Extended SS directly and vice versa</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1) Access to Default Session
+2) Wait 3s
+3) Check active session should be Default
+4) Wait 3s
+5) Access to Extended Session
+6) Tester Present ON
+7) Wait 5s
+8) Check active session should be Extended
+9) Wait 3s
+10) Access to Default Session
+11) Wait 3s
+12) Check active session should be Default</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) -
+9) -
+10) -
+11) -
+12) -</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(1001,5001.*, Regexp)
+2) wait(3000)
+3) RequestResponse(22f186,62f186.*1, Regexp)
+4) wait(3000)
+5) RequestResponse(1003,5003.*, Regexp)
+6) envvar(EnvTesterPresentOnOff(1;0))
+7) wait(5000)
+8) RequestResponse(22f186,62f186.*3, Regexp)
+9) wait(3000)
+10) RequestResponse(1001,5001.*, Regexp)
+11) wait(3000)
+12) RequestResponse(22f186,62f186.*1, Regexp)</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ID_97</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1.3.2 Default SS to Programming SS directly and vice versa</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Default SS to Programming SS directly and vice versa</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1) Access to Default Session
+2) Wait 3s
+3) Check active session should be Default
+4) Wait 3s
+5) Access to Programming Session (can't access directly and NRC 7E is responded)
+6) Wait 3s
+7) Check active session should be Default
+8) Wait 3s
+9) Access to Extended before access to Programming Session
+10) Tester Present ON
+11 Wait 5s
+12) Check active session should be Extended
+13) Wait 3s
+14) Access to Progamming Session
+15) Wait 3s
+16) Check active session should be Progamming Session
+17) Access to Default Session
+18) Wait 3s
+19) Check active session should be Progamming Session</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) -
+9) -
+10) -
+11) -
+12) -
+13) -
+14) -
+15) -
+16) -
+17) -
+18) -
+19) -</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(1001, 5001.*, Regexp)
+2) wait(3000)
+3) RequestResponse(22f186, 62f186.*1, Regexp)
+4) wait(3000)
+5) RequestResponse(1002, 7f107e, Equal)
+6) wait(3000)
+7) RequestResponse(22f186, 62f186.*1, Regexp)
+8) wait(3000)
+9) RequestResponse(1003, 5003.*, Regexp)
+10) envvar(EnvTesterPresentOnOff(1;0))
+11) wait(5000)
+12) RequestResponse(22f186, 62f186.*3, Regexp)
+13) RequestResponse(1002, 5002.*, Regexp)
+14) wait(3000)
+15) RequestResponse(22f186, 62f186.*2, Regexp)
+16) wait(3000)
+17) RequestResponse(1001, 5001.*, Regexp)
+18) wait(3000)
+19) RequestResponse(22f186, 62f186.*1, Regexp)</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/TC_FBL.xlsx
+++ b/TC_FBL.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4707,21 +4707,20 @@
 2) Wait 3s
 3) Check active session should be Default
 4) Wait 3s
-5) Access to Programming Session (can't access directly and NRC 7E is responded)
+5) Access to Programming Session (can not access directly and NRC 7E is responsed)
 6) Wait 3s
 7) Check active session should be Default
 8) Wait 3s
-9) Access to Extended before access to Programming Session
+9) Access to Extended Session before access to Programming session
 10) Tester Present ON
-11 Wait 5s
+11) Wait 5s
 12) Check active session should be Extended
-13) Wait 3s
-14) Access to Progamming Session
-15) Wait 3s
-16) Check active session should be Progamming Session
-17) Access to Default Session
-18) Wait 3s
-19) Check active session should be Progamming Session</t>
+13) Access to Programming Session
+14) Wait 3s
+15) Check active session should be Programming
+16) Access to Default Session
+17) Wait 3s
+18) Check active session should be Default</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4743,44 +4742,7307 @@
 15) -
 16) -
 17) -
-18) -
-19) -</t>
+18) -</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1) RequestResponse(1001, 5001.*, Regexp)
+          <t>1) RequestResponse(1001,5001.*, Regexp)
 2) wait(3000)
-3) RequestResponse(22f186, 62f186.*1, Regexp)
+3) RequestResponse(22f186,62f186.*1, Regexp)
 4) wait(3000)
 5) RequestResponse(1002, 7f107e, Equal)
 6) wait(3000)
-7) RequestResponse(22f186, 62f186.*1, Regexp)
+7) RequestResponse(22f186,62f186.*1, Regexp)
 8) wait(3000)
 9) RequestResponse(1003, 5003.*, Regexp)
 10) envvar(EnvTesterPresentOnOff(1;0))
 11) wait(5000)
-12) RequestResponse(22f186, 62f186.*3, Regexp)
+12) RequestResponse(22f186,62f186.*3, Regexp)
 13) RequestResponse(1002, 5002.*, Regexp)
 14) wait(3000)
-15) RequestResponse(22f186, 62f186.*2, Regexp)
+15) RequestResponse(22f186,62f186.*2, Regexp)
+16) RequestResponse(1001, 5001.*, Regexp)
+17) wait(3000)
+18) RequestResponse(22f186,62f186.*1, Regexp)</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ID_98</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1.3.3 Programming SS to Extended SS directly and vice versa</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Programming SS to Extended SS directly and vice versa</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1) Access to Default Session
+2) Wait 3s
+3) Check active session should be Default
+4) Wait 3s
+5) Access to Extended Session before access to Programming session
+6) Tester Present ON
+7) Wait 5s
+8) Check active session should be Extended
+9) Access to Programming Session
+10) Wait 3s
+11) Check active session should be Programming
+12) Access to Extended Session (can not access directly and NRC 7E is responsed)
+13) Wait 3s
+14) Check active session should be Programming
+15) Access to Default Session
+16) Wait 3s
+17) Check active session should be Default</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) -
+9) -
+10) -
+11) -
+12) -
+13) -
+14) -
+15) -
+16) -
+17) -</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(1001,5001.*, Regexp)
+2) wait(3000)
+3) RequestResponse(22f186,62f186.*1, Regexp)
+4) wait(3000)
+5) RequestResponse(1003, 5003.*, Regexp)
+6) envvar(EnvTesterPresentOnOff(1;0))
+7) wait(5000)
+8) RequestResponse(22f186,62f186.*3, Regexp)
+9) RequestResponse(1002, 5002.*, Regexp)
+10) wait(3000)
+11) RequestResponse(22f186,62f186.*2, Regexp)
+12) RequestResponse(1003,7f107e, Equal)
+13) wait(3000)
+14) RequestResponse(22f186,62f186.*2, Regexp)
+15) RequestResponse(1001, 5001.*, Regexp)
 16) wait(3000)
-17) RequestResponse(1001, 5001.*, Regexp)
-18) wait(3000)
-19) RequestResponse(22f186, 62f186.*1, Regexp)</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Automated Testcase</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
+17) RequestResponse(22f186,62f186.*1, Regexp)</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>ID_99</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>1.4 Read DID DPT in Default section</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr"/>
+      <c r="D99" s="2" t="inlineStr"/>
+      <c r="E99" s="2" t="inlineStr"/>
+      <c r="F99" s="2" t="inlineStr"/>
+      <c r="G99" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="inlineStr"/>
+      <c r="I99" s="2" t="inlineStr"/>
+      <c r="J99" s="2" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ID_100</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1.4.1 Access to Default Session</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Access to Default Session</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1) Access to Default Session
+2) Wait 3s
+3) Check active session should be Default</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1) -
+2) -
+3) -</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(1001,5001.*, Regexp)
+2) wait(3000)
+3) RequestResponse(22f186,62f186.*1, Regexp)</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ID_101</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1.4.2 0110 Manufactory mode</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0110</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0110 using physical addressing
+2) Send service 0x22 to the camera for the DID 0110 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220110,620110ff, Equal)
+2) FunctionalMessage(220110,620110ff, Equal)</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ID_102</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1.4.3 0120 DTC Setting control state</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0120</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0120 using physical addressing
+2) Send service 0x22 to the camera for the DID 0120 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220120,620120ffffffffffffffffffffffffffffffffff, Equal)
+2) FunctionalMessage(220120,620120ffffffffffffffffffffffffffffffffff, Equal)</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ID_103</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1.4.4 0140 Transportation mode</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0140</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0140 using physical addressing
+2) Send service 0x22 to the camera for the DID 0140 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220140,62014000, Equal)
+2) FunctionalMessage(220140,62014000, Equal)</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ID_104</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1.4.5 0200 Reprogramming Counter</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0200</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0200 using physical addressing
+2) Send service 0x22 to the camera for the DID 0200 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220200,620200.{4}, Regexp)
+2) FunctionalMessage(220200,620200.{4}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ID_105</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1.4.6 0201 Reprogramming Attempt Counter</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0201</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0201 using physical addressing
+2) Send service 0x22 to the camera for the DID 0201 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220201,620201.{4}, Regexp)
+2) FunctionalMessage(220201,620201.{4}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ID_106</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.4.7 F100 UDS Protol Version </t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>To check value of the DID F100</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F100 using physical addressing
+2) Send service 0x22 to the camera for the DID F100 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f100,62f1002006, Equal)
+2) FunctionalMessage(22f100,62f1002006, Equal)</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ID_107</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1.4.8 F101 DCID</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>To check value of the DID F101</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F101 using physical addressing
+2) Send service 0x22 to the camera for the DID F101 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f101,62f101400000, Equal)
+2) FunctionalMessage(22f101,62f101400000, Equal)</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ID_108</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1.4.9 F102 MTOC</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>To check value of the DID F102</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F102 using physical addressing
+2) Send service 0x22 to the camera for the DID F102 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f102,62f1023030303030303030303030303030303030, Equal)
+2) FunctionalMessage(22f102,62f1023030303030303030303030303030303030, Equal)</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ID_109</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1.4.10 F10B GAC Diagnostic Parameter Table Version</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>To check value of the DID F10B</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F10B using physical addressing
+2) Send service 0x22 to the camera for the DID F10B using functional addressing</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f10b,62f10b.{8}, Regexp)
+2) FunctionalMessage(22f10b,62f10b.{8}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ID_110</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.4.11 F10D GAC diagnostic Specification Version DataIdentifier </t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>To check value of the DID F10D</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F10D using physical addressing
+2) Send service 0x22 to the camera for the DID F10D using functional addressing</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f10d,62f10d18171b, Equal)
+2) FunctionalMessage(22f10d,62f10d18171b, Equal)</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ID_111</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1.4.12 F17F GACECUHardwareVersionNumberDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>To check value of the DID F17F</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F17F using physical addressing
+2) Send service 0x22 to the camera for the DID F17F using functional addressing</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f17f,62f17f383748484352563030302020482e303030, Equal)
+2) FunctionalMessage(22f17f,62f17f383748484352563030302020482e303030, Equal)</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ID_112</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.4.13 F180 bootSoftwareIdentification </t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>To check value of the DID F180</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F180 using physical addressing
+2) Send service 0x22 to the camera for the DID F180 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f180,62f180383534303030394352563031422e303030, Equal)
+2) FunctionalMessage(22f180,62f180383534303030394352563031422e303030, Equal)</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ID_113</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1.4.14 F181 applicationSoftwareIdentificationDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>To check value of the DID F181</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F181 using physical addressing
+2) Send service 0x22 to the camera for the DID F181 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f181,62f181383534303030394352563031412e433031, Equal)
+2) FunctionalMessage(22f181,62f181383534303030394352563031412e433031, Equal)</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ID_114</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1.4.15 F184 ApplicationSoftwareFingerprintDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>To check value of the DID F184</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F184 using physical addressing
+2) Send service 0x22 to the camera for the DID F184 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f184,62f184ff000101ffffffffffff, Equal)
+2) FunctionalMessage(22f184,62f184ff000101ffffffffffff, Equal)</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ID_115</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1.4.16 F186 activeDiagnosticSessionDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>To check value of the DID F186</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F186 using physical addressing
+2) Send service 0x22 to the camera for the DID F186 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f186,62f186.{2}, Regexp)
+2) FunctionalMessage(22f186,62f186.{2}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ID_116</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1.4.17 F187 GAC SparePartNumberDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>To check value of the DID F187</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F187 using physical addressing
+2) Send service 0x22 to the camera for the DID F187 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f187,62f1873835343030303943525630313030, Equal)
+2) FunctionalMessage(22f187,62f1873835343030303943525630313030, Equal)</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ID_117</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1.4.18 F189 GACECUSoftwareVersionNumberDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>To check value of the DID F189</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F189 using physical addressing
+2) Send service 0x22 to the camera for the DID F189 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f189,62f189383738484352563030302020532e433031, Equal)
+2) FunctionalMessage(22f189,62f189383738484352563030302020532e433031, Equal)</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>ID_118</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1.4.19 F18A systemSupplierIdentifierDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>To check value of the DID F18A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F18A using physical addressing
+2) Send service 0x22 to the camera for the DID F18A using functional addressing</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f18a,62f18a.{18}, Regexp)
+2) FunctionalMessage(22f18a,62f18a.{18}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ID_119</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1.4.20 F18C ECUSerialNumberDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>To check value of the DID F18C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F18C using physical addressing
+2) Send service 0x22 to the camera for the DID F18C using functional addressing</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f18c,62f18c.{5}000101.{8}, Regexp)
+2) FunctionalMessage(22f18c,62f18c.{5}000101.{8}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ID_120</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1.4.21 F18E GAC KitAssemblyPartNumberDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>To check value of the DID F18E</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F18E using physical addressing
+2) Send service 0x22 to the camera for the DID F18E using functional addressing</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f18e,62f18e.{28}, Regexp)
+2) FunctionalMessage(22f18e,62f18e.{28}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ID_121</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1.4.22 F190 VIN</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>To check value of the DID F190</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F190 using physical addressing
+2) Send service 0x22 to the camera for the DID F190 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f190,62f1900000000000000000000000000000000000, Equal)
+2) FunctionalMessage(22f190,62f1900000000000000000000000000000000000, Equal)</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ID_122</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1.4.23 F193 systemSupplier ECU Hardware Version</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>To check value of the DID F193</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F193 using physical addressing
+2) Send service 0x22 to the camera for the DID F193 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f193,62f193.{16}, Regexp)
+2) FunctionalMessage(22f193,62f193.{16}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ID_123</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1.4.24 F195 systemNameDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>To check value of the DID F195</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F195 using physical addressing
+2) Send service 0x22 to the camera for the DID F195 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f195,62f195424c30335638.{4}, Regexp)
+2) FunctionalMessage(22f195,62f195424c30335638.{4}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ID_124</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1.4.25 F197 systemNameDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>To check value of the DID F197</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F197 using physical addressing
+2) Send service 0x22 to the camera for the DID F197 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f197,62f1974137392d424f5343482d494643.{14}, Regexp)
+2) FunctionalMessage(22f197,62f1974137392d424f5343482d494643.{14}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ID_125</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1.4.26 F199 programmingDateDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>To check value of the DID F199</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F199 using physical addressing
+2) Send service 0x22 to the camera for the DID F199 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f199,62f19920000101, Equal)
+2) FunctionalMessage(22f199,62f19920000101, Equal)</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>ID_126</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.4.27 F1B2 ECUCalibration SoftwareIdentification </t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>To check value of the DID F1B2</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F1B2 using physical addressing
+2) Send service 0x22 to the camera for the DID F1B2 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f1b2,62f1b2383534303030394352563031432e433030, Equal)
+2) FunctionalMessage(22f1b2,62f1b2383534303030394352563031432e433030, Equal)</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ID_127</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1.4.28 1000 Power Voltage</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>To check value of the DID 1000</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 1000 using physical addressing
+2) Send service 0x22 to the camera for the DID 1000 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(221000,621000.{2}, Regexp)
+2) FunctionalMessage(221000,621000.{2}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ID_128</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1.4.29 0308 Distance between target and vehicle</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0308</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0308 using physical addressing
+2) Send service 0x22 to the camera for the DID 0308 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220308,6203080226, Equal)
+2) FunctionalMessage(220308,6203080226, Equal)</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ID_129</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1.4.30 0309 Height of body wheel house edge</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0309</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0309 using physical addressing
+2) Send service 0x22 to the camera for the DID 0309 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220309,620309.{8}, Regexp)
+2) FunctionalMessage(220309,620309.{8}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ID_130</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1.4.31 030A Distance between targets</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>To check value of the DID 030A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 030A using physical addressing
+2) Send service 0x22 to the camera for the DID 030A using functional addressing</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22030a,62030a007e, Equal)
+2) FunctionalMessage(22030a,62030a007e, Equal)</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ID_131</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1.4.32 030B width of target squares</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>To check value of the DID 030B</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 030B using physical addressing
+2) Send service 0x22 to the camera for the DID 030B using functional addressing</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22030b,62030b0010, Equal)
+2) FunctionalMessage(22030b,62030b0010, Equal)</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ID_132</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1.4.33 030C Target height from ground</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>To check value of the DID 030C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 030C using physical addressing
+2) Send service 0x22 to the camera for the DID 030C using functional addressing</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22030c,62030c0096, Equal)
+2) FunctionalMessage(22030c,62030c0096, Equal)</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ID_133</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1.4.34 030D Target lateral center offset</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>To check value of the DID 030D</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 030D using physical addressing
+2) Send service 0x22 to the camera for the DID 030D using functional addressing</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22030d,62030d0000, Equal)
+2) FunctionalMessage(22030d,62030d0000, Equal)</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ID_134</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>1.4.35 0302 Calibration Status</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0302</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0302 using physical addressing
+2) Send service 0x22 to the camera for the DID 0302 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220302,62030200, Equal)
+2) FunctionalMessage(220302,62030200, Equal)</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ID_135</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1.4.36 0303 mode(Calibration Mode)</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0303</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0303 using physical addressing
+2) Send service 0x22 to the camera for the DID 0303 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220303,62030300, Equal)
+2) FunctionalMessage(220303,62030300, Equal)</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ID_136</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1.4.37 0304 EOL calibration parameters(Static Calibration)</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0304</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0304 using physical addressing
+2) Send service 0x22 to the camera for the DID 0304 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220304,620304.{16}, Regexp)
+2) FunctionalMessage(220304,620304.{16}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ID_137</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1.4.38 0305 camera dynamic parameters (Online Calibration)</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0305</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0305 using physical addressing
+2) Send service 0x22 to the camera for the DID 0305 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220305,620305.{16}, Regexp)
+2) FunctionalMessage(220305,620305.{16}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ID_138</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1.4.39 0306 Dynamic calibration parameters(Initial Online Calibration)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0306</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0306 using physical addressing
+2) Send service 0x22 to the camera for the DID 0306 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220306,620306.{16}, Regexp)
+2) FunctionalMessage(220306,620306.{16}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ID_139</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1.4.40 0307 Rate of progress in Dynamic Calibration(%)</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0307</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0307 using physical addressing
+2) Send service 0x22 to the camera for the DID 0307 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220307,6203070000, Equal)
+2) FunctionalMessage(220307,6203070000, Equal)</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ID_140</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1.4.41 0100 function configuration</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0100</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0100 using physical addressing
+2) Send service 0x22 to the camera for the DID 0100 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220100,6201000000, Equal)
+2) FunctionalMessage(220100,6201000000, Equal)</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>ID_141</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1.4.42 0101 Variant Coding</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0101</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0101 using physical addressing
+2) Send service 0x22 to the camera for the DID 0101 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220101,62010101, Equal)
+2) FunctionalMessage(220101,62010101, Equal)</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ID_142</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1.4.43 0E00 Transceiver mode configuration</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0E00</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0E00 using physical addressing
+2) Send service 0x22 to the camera for the DID 0E00 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220e00,620e0000, Equal)
+2) FunctionalMessage(220e00,620e0000, Equal)</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>ID_143</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1.4.44 0E01 PHY Link Status</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0E01</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0E01 using physical addressing
+2) Send service 0x22 to the camera for the DID 0E01 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220e01,620e0100, Equal)
+2) FunctionalMessage(220e01,620e0100, Equal)</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>ID_144</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1.4.45 0E02 SQI Value</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0E02</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0E02 using physical addressing
+2) Send service 0x22 to the camera for the DID 0E02 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220e02,620e0200, Equal)
+2) FunctionalMessage(220e02,620e0200, Equal)</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>ID_145</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1.4.46 0E03 PHY Mode</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0E03</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0E03 using physical addressing
+2) Send service 0x22 to the camera for the DID 0E03 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220e03,620e0300, Equal)
+2) FunctionalMessage(220e03,620e0300, Equal)</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ID_146</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1.4.47 0E04 Link Diagnostics</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0E04</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0E04 using physical addressing
+2) Send service 0x22 to the camera for the DID 0E04 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220e04,620e0400, Equal)
+2) FunctionalMessage(220e04,620e0400, Equal)</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>ID_147</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>1.5 Read DID DPT in Extended section</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr"/>
+      <c r="D147" s="2" t="inlineStr"/>
+      <c r="E147" s="2" t="inlineStr"/>
+      <c r="F147" s="2" t="inlineStr"/>
+      <c r="G147" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H147" s="2" t="inlineStr"/>
+      <c r="I147" s="2" t="inlineStr"/>
+      <c r="J147" s="2" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ID_148</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1.5.1 Access to Extended Session</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Access to Extended Session</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1) Access to Default Session
+2) Wait 3s
+3) Check active session should be Default
+4) Wait 3s
+5) Access to Extended Session
+6) Tester Present ON
+7) Wait 5s
+8) Check active session should be Extended</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) -</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(1001,5001.*, Regexp)
+2) wait(3000)
+3) RequestResponse(22f186,62f186.*1, Regexp)
+4) wait(3000)
+5) RequestResponse(1003,5003.*, Regexp)
+6) envvar(EnvTesterPresentOnOff(1;0))
+7) wait(5000)
+8) RequestResponse(22f186,62f186.*3, Regexp)</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>ID_149</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1.5.2 0110 Manufactory mode</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0110</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0110 using physical addressing
+2) Send service 0x22 to the camera for the DID 0110 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220110,620110ff, Equal)
+2) FunctionalMessage(220110,620110ff, Equal)</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ID_150</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1.5.3 0120 DTC Setting control state</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0120</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0120 using physical addressing
+2) Send service 0x22 to the camera for the DID 0120 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220120,620120ffffffffffffffffffffffffffffffffff, Equal)
+2) FunctionalMessage(220120,620120ffffffffffffffffffffffffffffffffff, Equal)</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ID_151</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1.5.4 0140 Transportation mode</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0140</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0140 using physical addressing
+2) Send service 0x22 to the camera for the DID 0140 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220140,62014000, Equal)
+2) FunctionalMessage(220140,62014000, Equal)</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>ID_152</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>1.5.5 0200 Reprogramming Counter</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0200</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0200 using physical addressing
+2) Send service 0x22 to the camera for the DID 0200 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220200,620200.{4}, Regexp)
+2) FunctionalMessage(220200,620200.{4}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ID_153</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1.5.6 0201 Reprogramming Attempt Counter</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0201</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0201 using physical addressing
+2) Send service 0x22 to the camera for the DID 0201 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220201,620201.{4}, Regexp)
+2) FunctionalMessage(220201,620201.{4}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ID_154</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.5.7 F100 UDS Protol Version </t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>To check value of the DID F100</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F100 using physical addressing
+2) Send service 0x22 to the camera for the DID F100 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f100,62f1002006, Equal)
+2) FunctionalMessage(22f100,62f1002006, Equal)</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ID_155</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1.5.8 F101 DCID</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>To check value of the DID F101</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F101 using physical addressing
+2) Send service 0x22 to the camera for the DID F101 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f101,62f101400000, Equal)
+2) FunctionalMessage(22f101,62f101400000, Equal)</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ID_156</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>1.5.9 F102 MTOC</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>To check value of the DID F102</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F102 using physical addressing
+2) Send service 0x22 to the camera for the DID F102 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f102,62f1023030303030303030303030303030303030, Equal)
+2) FunctionalMessage(22f102,62f1023030303030303030303030303030303030, Equal)</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ID_157</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>1.5.10 F10B GAC Diagnostic Parameter Table Version</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>To check value of the DID F10B</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F10B using physical addressing
+2) Send service 0x22 to the camera for the DID F10B using functional addressing</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f10b,62f10b.{8}, Regexp)
+2) FunctionalMessage(22f10b,62f10b.{8}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ID_158</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.5.11 F10D GAC diagnostic Specification Version DataIdentifier </t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>To check value of the DID F10D</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F10D using physical addressing
+2) Send service 0x22 to the camera for the DID F10D using functional addressing</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f10d,62f10d18171b, Equal)
+2) FunctionalMessage(22f10d,62f10d18171b, Equal)</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ID_159</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1.5.12 F17F GACECUHardwareVersionNumberDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>To check value of the DID F17F</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F17F using physical addressing
+2) Send service 0x22 to the camera for the DID F17F using functional addressing</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f17f,62f17f383748484352563030302020482e303030, Equal)
+2) FunctionalMessage(22f17f,62f17f383748484352563030302020482e303030, Equal)</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ID_160</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.5.13 F180 bootSoftwareIdentification </t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>To check value of the DID F180</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F180 using physical addressing
+2) Send service 0x22 to the camera for the DID F180 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f180,62f180383534303030394352563031422e303030, Equal)
+2) FunctionalMessage(22f180,62f180383534303030394352563031422e303030, Equal)</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ID_161</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1.5.14 F181 applicationSoftwareIdentificationDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>To check value of the DID F181</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F181 using physical addressing
+2) Send service 0x22 to the camera for the DID F181 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f181,62f181383534303030394352563031412e433031, Equal)
+2) FunctionalMessage(22f181,62f181383534303030394352563031412e433031, Equal)</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ID_162</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>1.5.15 F184 ApplicationSoftwareFingerprintDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>To check value of the DID F184</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F184 using physical addressing
+2) Send service 0x22 to the camera for the DID F184 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f184,62f184ff000101ffffffffffff, Equal)
+2) FunctionalMessage(22f184,62f184ff000101ffffffffffff, Equal)</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ID_163</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>1.5.16 F186 activeDiagnosticSessionDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>To check value of the DID F186</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F186 using physical addressing
+2) Send service 0x22 to the camera for the DID F186 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f186,62f186.{2}, Regexp)
+2) FunctionalMessage(22f186,62f186.{2}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ID_164</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1.5.17 F187 GAC SparePartNumberDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>To check value of the DID F187</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F187 using physical addressing
+2) Send service 0x22 to the camera for the DID F187 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f187,62f1873835343030303943525630313030, Equal)
+2) FunctionalMessage(22f187,62f1873835343030303943525630313030, Equal)</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ID_165</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>1.5.18 F189 GACECUSoftwareVersionNumberDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>To check value of the DID F189</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F189 using physical addressing
+2) Send service 0x22 to the camera for the DID F189 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f189,62f189383738484352563030302020532e433031, Equal)
+2) FunctionalMessage(22f189,62f189383738484352563030302020532e433031, Equal)</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ID_166</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1.5.19 F18A systemSupplierIdentifierDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>To check value of the DID F18A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F18A using physical addressing
+2) Send service 0x22 to the camera for the DID F18A using functional addressing</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f18a,62f18a.{18}, Regexp)
+2) FunctionalMessage(22f18a,62f18a.{18}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ID_167</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>1.5.20 F18C ECUSerialNumberDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>To check value of the DID F18C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F18C using physical addressing
+2) Send service 0x22 to the camera for the DID F18C using functional addressing</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f18c,62f18c.{5}000101.{8}, Regexp)
+2) FunctionalMessage(22f18c,62f18c.{5}000101.{8}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ID_168</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>1.5.21 F18E GAC KitAssemblyPartNumberDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>To check value of the DID F18E</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F18E using physical addressing
+2) Send service 0x22 to the camera for the DID F18E using functional addressing</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f18e,62f18e.{28}, Regexp)
+2) FunctionalMessage(22f18e,62f18e.{28}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ID_169</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>1.5.22 F190 VIN</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>To check value of the DID F190</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F190 using physical addressing
+2) Send service 0x22 to the camera for the DID F190 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f190,62f1900000000000000000000000000000000000, Equal)
+2) FunctionalMessage(22f190,62f1900000000000000000000000000000000000, Equal)</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ID_170</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>1.5.23 F193 systemSupplier ECU Hardware Version</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>To check value of the DID F193</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F193 using physical addressing
+2) Send service 0x22 to the camera for the DID F193 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f193,62f193.{16}, Regexp)
+2) FunctionalMessage(22f193,62f193.{16}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ID_171</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>1.5.24 F195 systemNameDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>To check value of the DID F195</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F195 using physical addressing
+2) Send service 0x22 to the camera for the DID F195 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f195,62f195424c30335638.{4}, Regexp)
+2) FunctionalMessage(22f195,62f195424c30335638.{4}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>ID_172</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>1.5.25 F197 systemNameDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>To check value of the DID F197</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F197 using physical addressing
+2) Send service 0x22 to the camera for the DID F197 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f197,62f1974137392d424f5343482d494643.{14}, Regexp)
+2) FunctionalMessage(22f197,62f1974137392d424f5343482d494643.{14}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>ID_173</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>1.5.26 F199 programmingDateDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>To check value of the DID F199</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F199 using physical addressing
+2) Send service 0x22 to the camera for the DID F199 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f199,62f19920000101, Equal)
+2) FunctionalMessage(22f199,62f19920000101, Equal)</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ID_174</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.5.27 F1B2 ECUCalibration SoftwareIdentification </t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>To check value of the DID F1B2</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F1B2 using physical addressing
+2) Send service 0x22 to the camera for the DID F1B2 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f1b2,62f1b2383534303030394352563031432e433030, Equal)
+2) FunctionalMessage(22f1b2,62f1b2383534303030394352563031432e433030, Equal)</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>ID_175</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>1.5.28 1000 Power Voltage</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>To check value of the DID 1000</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 1000 using physical addressing
+2) Send service 0x22 to the camera for the DID 1000 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(221000,621000.{2}, Regexp)
+2) FunctionalMessage(221000,621000.{2}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>ID_176</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>1.5.29 0308 Distance between target and vehicle</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0308</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0308 using physical addressing
+2) Send service 0x22 to the camera for the DID 0308 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220308,6203080226, Equal)
+2) FunctionalMessage(220308,6203080226, Equal)</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>ID_177</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>1.5.30 0309 Height of body wheel house edge</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0309</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0309 using physical addressing
+2) Send service 0x22 to the camera for the DID 0309 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220309,620309.{8}, Regexp)
+2) FunctionalMessage(220309,620309.{8}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>ID_178</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>1.5.31 030A Distance between targets</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>To check value of the DID 030A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 030A using physical addressing
+2) Send service 0x22 to the camera for the DID 030A using functional addressing</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22030a,62030a007e, Equal)
+2) FunctionalMessage(22030a,62030a007e, Equal)</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>ID_179</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>1.5.32 030B width of target squares</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>To check value of the DID 030B</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 030B using physical addressing
+2) Send service 0x22 to the camera for the DID 030B using functional addressing</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22030b,62030b0010, Equal)
+2) FunctionalMessage(22030b,62030b0010, Equal)</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>ID_180</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>1.5.33 030C Target height from ground</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>To check value of the DID 030C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 030C using physical addressing
+2) Send service 0x22 to the camera for the DID 030C using functional addressing</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22030c,62030c0096, Equal)
+2) FunctionalMessage(22030c,62030c0096, Equal)</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>ID_181</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>1.5.34 030D Target lateral center offset</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>To check value of the DID 030D</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 030D using physical addressing
+2) Send service 0x22 to the camera for the DID 030D using functional addressing</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22030d,62030d0000, Equal)
+2) FunctionalMessage(22030d,62030d0000, Equal)</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>ID_182</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>1.5.35 0302 Calibration Status</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0302</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0302 using physical addressing
+2) Send service 0x22 to the camera for the DID 0302 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220302,62030200, Equal)
+2) FunctionalMessage(220302,62030200, Equal)</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ID_183</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>1.5.36 0303 mode(Calibration Mode)</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0303</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0303 using physical addressing
+2) Send service 0x22 to the camera for the DID 0303 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220303,62030300, Equal)
+2) FunctionalMessage(220303,62030300, Equal)</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>ID_184</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>1.5.37 0304 EOL calibration parameters(Static Calibration)</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0304</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0304 using physical addressing
+2) Send service 0x22 to the camera for the DID 0304 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220304,620304.{16}, Regexp)
+2) FunctionalMessage(220304,620304.{16}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>ID_185</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>1.5.38 0305 camera dynamic parameters (Online Calibration)</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0305</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0305 using physical addressing
+2) Send service 0x22 to the camera for the DID 0305 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220305,620305.{16}, Regexp)
+2) FunctionalMessage(220305,620305.{16}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ID_186</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>1.5.39 0306 Dynamic calibration parameters(Initial Online Calibration)</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0306</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0306 using physical addressing
+2) Send service 0x22 to the camera for the DID 0306 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220306,620306.{16}, Regexp)
+2) FunctionalMessage(220306,620306.{16}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ID_187</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>1.5.40 0307 Rate of progress in Dynamic Calibration(%)</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0307</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0307 using physical addressing
+2) Send service 0x22 to the camera for the DID 0307 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220307,6203070000, Equal)
+2) FunctionalMessage(220307,6203070000, Equal)</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ID_188</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>1.5.41 0100 function configuration</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0100</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0100 using physical addressing
+2) Send service 0x22 to the camera for the DID 0100 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220100,6201000000, Equal)
+2) FunctionalMessage(220100,6201000000, Equal)</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ID_189</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>1.5.42 0101 Variant Coding</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0101</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0101 using physical addressing
+2) Send service 0x22 to the camera for the DID 0101 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220101,62010101, Equal)
+2) FunctionalMessage(220101,62010101, Equal)</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>ID_190</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>1.5.43 0E00 Transceiver mode configuration</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0E00</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0E00 using physical addressing
+2) Send service 0x22 to the camera for the DID 0E00 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220e00,620e0000, Equal)
+2) FunctionalMessage(220e00,620e0000, Equal)</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ID_191</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>1.5.44 0E01 PHY Link Status</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0E01</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0E01 using physical addressing
+2) Send service 0x22 to the camera for the DID 0E01 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220e01,620e0100, Equal)
+2) FunctionalMessage(220e01,620e0100, Equal)</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ID_192</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>1.5.45 0E02 SQI Value</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0E02</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0E02 using physical addressing
+2) Send service 0x22 to the camera for the DID 0E02 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220e02,620e0200, Equal)
+2) FunctionalMessage(220e02,620e0200, Equal)</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ID_193</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>1.5.46 0E03 PHY Mode</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0E03</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0E03 using physical addressing
+2) Send service 0x22 to the camera for the DID 0E03 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220e03,620e0300, Equal)
+2) FunctionalMessage(220e03,620e0300, Equal)</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ID_194</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>1.5.47 0E04 Link Diagnostics</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0E04</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0E04 using physical addressing
+2) Send service 0x22 to the camera for the DID 0E04 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220e04,620e0400, Equal)
+2) FunctionalMessage(220e04,620e0400, Equal)</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>ID_195</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>1.6 Read DID DPT in Programming section</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr"/>
+      <c r="D195" s="2" t="inlineStr"/>
+      <c r="E195" s="2" t="inlineStr"/>
+      <c r="F195" s="2" t="inlineStr"/>
+      <c r="G195" s="2" t="inlineStr">
+        <is>
+          <t>Test group</t>
+        </is>
+      </c>
+      <c r="H195" s="2" t="inlineStr"/>
+      <c r="I195" s="2" t="inlineStr"/>
+      <c r="J195" s="2" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ID_196</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>1.6.1 Access to Extended Session</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Access to Extended Session</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>1) Access to Default Session
+2) Wait 3s
+3) Check active session should be Default
+4) Wait 3s
+5) Access to Extended Session
+6) Tester Present ON
+7) Wait 5s
+8) Check active session should be Extended
+9) Access to Programming Session
+10) Wait 3s
+11) Check active session should be Programming</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) -
+9) -
+10) -
+11) -</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(1001,5001.*, Regexp)
+2) wait(3000)
+3) RequestResponse(22f186,62f186.*1, Regexp)
+4) wait(3000)
+5) RequestResponse(1003,5003.*, Regexp)
+6) envvar(EnvTesterPresentOnOff(1;0))
+7) wait(5000)
+8) RequestResponse(22f186,62f186.*3, Regexp)
+9) RequestResponse(1002, 5002.*, Regexp)
+10) wait(3000)
+11) RequestResponse(22f186,62f186.*2, Regexp)</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>ID_197</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>1.6.2 0110 Manufactory mode</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0110</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0110 using physical addressing
+2) Send service 0x22 to the camera for the DID 0110 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220110,,None)
+2) FunctionalMessage(220110,,None)</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>ID_198</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>1.6.3 0120 DTC Setting control state</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0120</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0120 using physical addressing
+2) Send service 0x22 to the camera for the DID 0120 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220120,,None)
+2) FunctionalMessage(220120,,None)</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>ID_199</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>1.6.4 0140 Transportation mode</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0140</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0140 using physical addressing
+2) Send service 0x22 to the camera for the DID 0140 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220140,,None)
+2) FunctionalMessage(220140,,None)</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ID_200</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>1.6.5 0200 Reprogramming Counter</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0200</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0200 using physical addressing
+2) Send service 0x22 to the camera for the DID 0200 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220200,620200.{4}, Regexp)
+2) FunctionalMessage(220200,620200.{4}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ID_201</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>1.6.6 0201 Reprogramming Attempt Counter</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0201</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0201 using physical addressing
+2) Send service 0x22 to the camera for the DID 0201 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220201,620201.{4}, Regexp)
+2) FunctionalMessage(220201,620201.{4}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>ID_202</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.6.7 F100 UDS Protol Version </t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>To check value of the DID F100</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F100 using physical addressing
+2) Send service 0x22 to the camera for the DID F100 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f100,,None)
+2) FunctionalMessage(22f100,,None)</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>ID_203</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1.6.8 F101 DCID</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>To check value of the DID F101</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F101 using physical addressing
+2) Send service 0x22 to the camera for the DID F101 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f101,,None)
+2) FunctionalMessage(22f101,,None)</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>ID_204</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1.6.9 F102 MTOC</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>To check value of the DID F102</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F102 using physical addressing
+2) Send service 0x22 to the camera for the DID F102 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f102,,None)
+2) FunctionalMessage(22f102,,None)</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ID_205</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1.6.10 F10B GAC Diagnostic Parameter Table Version</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>To check value of the DID F10B</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F10B using physical addressing
+2) Send service 0x22 to the camera for the DID F10B using functional addressing</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f10b,,None)
+2) FunctionalMessage(22f10b,,None)</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ID_206</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.6.11 F10D GAC diagnostic Specification Version DataIdentifier </t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>To check value of the DID F10D</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F10D using physical addressing
+2) Send service 0x22 to the camera for the DID F10D using functional addressing</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f10d,,None)
+2) FunctionalMessage(22f10d,,None)</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ID_207</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1.6.12 F17F GACECUHardwareVersionNumberDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>To check value of the DID F17F</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F17F using physical addressing
+2) Send service 0x22 to the camera for the DID F17F using functional addressing</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f17f,,None)
+2) FunctionalMessage(22f17f,,None)</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>ID_208</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.6.13 F180 bootSoftwareIdentification </t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>To check value of the DID F180</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F180 using physical addressing
+2) Send service 0x22 to the camera for the DID F180 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f180,62f180383534303030394352563031422e303030, Equal)
+2) FunctionalMessage(22f180,62f180383534303030394352563031422e303030, Equal)</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>ID_209</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1.6.14 F181 applicationSoftwareIdentificationDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>To check value of the DID F181</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F181 using physical addressing
+2) Send service 0x22 to the camera for the DID F181 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f181,,None)
+2) FunctionalMessage(22f181,,None)</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>ID_210</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1.6.15 F184 ApplicationSoftwareFingerprintDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>To check value of the DID F184</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F184 using physical addressing
+2) Send service 0x22 to the camera for the DID F184 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f184,62f184ff000101ffffffffffff, Equal)
+2) FunctionalMessage(22f184,62f184ff000101ffffffffffff, Equal)</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>ID_211</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1.6.16 F186 activeDiagnosticSessionDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>To check value of the DID F186</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F186 using physical addressing
+2) Send service 0x22 to the camera for the DID F186 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f186,62f186.{2}, Regexp)
+2) FunctionalMessage(22f186,62f186.{2}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>ID_212</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1.6.17 F187 GAC SparePartNumberDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>To check value of the DID F187</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F187 using physical addressing
+2) Send service 0x22 to the camera for the DID F187 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f187,62f1873835343030303943525630313030, Equal)
+2) FunctionalMessage(22f187,62f1873835343030303943525630313030, Equal)</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>ID_213</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1.6.18 F189 GACECUSoftwareVersionNumberDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>To check value of the DID F189</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F189 using physical addressing
+2) Send service 0x22 to the camera for the DID F189 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f189,,None)
+2) FunctionalMessage(22f189,,None)</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ID_214</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1.6.19 F18A systemSupplierIdentifierDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>To check value of the DID F18A</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F18A using physical addressing
+2) Send service 0x22 to the camera for the DID F18A using functional addressing</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f18a,,None)
+2) FunctionalMessage(22f18a,,None)</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>ID_215</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1.6.20 F18C ECUSerialNumberDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>To check value of the DID F18C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F18C using physical addressing
+2) Send service 0x22 to the camera for the DID F18C using functional addressing</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f18c,,None)
+2) FunctionalMessage(22f18c,,None)</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>ID_216</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1.6.21 F18E GAC KitAssemblyPartNumberDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>To check value of the DID F18E</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F18E using physical addressing
+2) Send service 0x22 to the camera for the DID F18E using functional addressing</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f18e,62f18e.{28}, Regexp)
+2) FunctionalMessage(22f18e,62f18e.{28}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>ID_217</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1.6.22 F190 VIN</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>To check value of the DID F190</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F190 using physical addressing
+2) Send service 0x22 to the camera for the DID F190 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f190,,None)
+2) FunctionalMessage(22f190,,None)</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>ID_218</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1.6.23 F193 systemSupplier ECU Hardware Version</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>To check value of the DID F193</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F193 using physical addressing
+2) Send service 0x22 to the camera for the DID F193 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f193,,None)
+2) FunctionalMessage(22f193,,None)</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>ID_219</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1.6.24 F195 systemNameDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>To check value of the DID F195</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F195 using physical addressing
+2) Send service 0x22 to the camera for the DID F195 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f195,,None)
+2) FunctionalMessage(22f195,,None)</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>ID_220</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1.6.25 F197 systemNameDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>To check value of the DID F197</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F197 using physical addressing
+2) Send service 0x22 to the camera for the DID F197 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f197,62f1974137392d424f5343482d494643.{14}, Regexp)
+2) FunctionalMessage(22f197,62f1974137392d424f5343482d494643.{14}, Regexp)</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>ID_221</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1.6.26 F199 programmingDateDataIdentifier</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>To check value of the DID F199</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F199 using physical addressing
+2) Send service 0x22 to the camera for the DID F199 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f199,62f19920000101, Equal)
+2) FunctionalMessage(22f199,62f19920000101, Equal)</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ID_222</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.6.27 F1B2 ECUCalibration SoftwareIdentification </t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>To check value of the DID F1B2</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID F1B2 using physical addressing
+2) Send service 0x22 to the camera for the DID F1B2 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22f1b2,,None)
+2) FunctionalMessage(22f1b2,,None)</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ID_223</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1.6.28 1000 Power Voltage</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>To check value of the DID 1000</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 1000 using physical addressing
+2) Send service 0x22 to the camera for the DID 1000 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(221000,,None)
+2) FunctionalMessage(221000,,None)</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>ID_224</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1.6.29 0308 Distance between target and vehicle</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0308</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0308 using physical addressing
+2) Send service 0x22 to the camera for the DID 0308 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220308,,None)
+2) FunctionalMessage(220308,,None)</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>ID_225</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1.6.30 0309 Height of body wheel house edge</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0309</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0309 using physical addressing
+2) Send service 0x22 to the camera for the DID 0309 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220309,,None)
+2) FunctionalMessage(220309,,None)</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>ID_226</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1.6.31 030A Distance between targets</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>To check value of the DID 030A</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 030A using physical addressing
+2) Send service 0x22 to the camera for the DID 030A using functional addressing</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22030a,,None)
+2) FunctionalMessage(22030a,,None)</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>ID_227</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1.6.32 030B width of target squares</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>To check value of the DID 030B</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 030B using physical addressing
+2) Send service 0x22 to the camera for the DID 030B using functional addressing</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22030b,,None)
+2) FunctionalMessage(22030b,,None)</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>ID_228</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1.6.33 030C Target height from ground</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>To check value of the DID 030C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 030C using physical addressing
+2) Send service 0x22 to the camera for the DID 030C using functional addressing</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22030c,,None)
+2) FunctionalMessage(22030c,,None)</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>ID_229</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1.6.34 030D Target lateral center offset</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>To check value of the DID 030D</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 030D using physical addressing
+2) Send service 0x22 to the camera for the DID 030D using functional addressing</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(22030d,,None)
+2) FunctionalMessage(22030d,,None)</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>ID_230</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1.6.35 0302 Calibration Status</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0302</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0302 using physical addressing
+2) Send service 0x22 to the camera for the DID 0302 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220302,,None)
+2) FunctionalMessage(220302,,None)</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>ID_231</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1.6.36 0303 mode(Calibration Mode)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0303</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0303 using physical addressing
+2) Send service 0x22 to the camera for the DID 0303 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220303,,None)
+2) FunctionalMessage(220303,,None)</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>ID_232</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1.6.37 0304 EOL calibration parameters(Static Calibration)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0304</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0304 using physical addressing
+2) Send service 0x22 to the camera for the DID 0304 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220304,,None)
+2) FunctionalMessage(220304,,None)</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>ID_233</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1.6.38 0305 camera dynamic parameters (Online Calibration)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0305</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0305 using physical addressing
+2) Send service 0x22 to the camera for the DID 0305 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220305,,None)
+2) FunctionalMessage(220305,,None)</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>ID_234</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1.6.39 0306 Dynamic calibration parameters(Initial Online Calibration)</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0306</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0306 using physical addressing
+2) Send service 0x22 to the camera for the DID 0306 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220306,,None)
+2) FunctionalMessage(220306,,None)</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>ID_235</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1.6.40 0307 Rate of progress in Dynamic Calibration(%)</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0307</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0307 using physical addressing
+2) Send service 0x22 to the camera for the DID 0307 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220307,,None)
+2) FunctionalMessage(220307,,None)</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ID_236</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1.6.41 0100 function configuration</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0100</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0100 using physical addressing
+2) Send service 0x22 to the camera for the DID 0100 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220100,,None)
+2) FunctionalMessage(220100,,None)</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>ID_237</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1.6.42 0101 Variant Coding</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0101</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0101 using physical addressing
+2) Send service 0x22 to the camera for the DID 0101 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220101,,None)
+2) FunctionalMessage(220101,,None)</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>ID_238</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1.6.43 0E00 Transceiver mode configuration</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0E00</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0E00 using physical addressing
+2) Send service 0x22 to the camera for the DID 0E00 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220e00,,None)
+2) FunctionalMessage(220e00,,None)</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>ID_239</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1.6.44 0E01 PHY Link Status</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0E01</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0E01 using physical addressing
+2) Send service 0x22 to the camera for the DID 0E01 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220e01,,None)
+2) FunctionalMessage(220e01,,None)</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>ID_240</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1.6.45 0E02 SQI Value</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0E02</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0E02 using physical addressing
+2) Send service 0x22 to the camera for the DID 0E02 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220e02,,None)
+2) FunctionalMessage(220e02,,None)</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>ID_241</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1.6.46 0E03 PHY Mode</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0E03</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0E03 using physical addressing
+2) Send service 0x22 to the camera for the DID 0E03 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220e03,,None)
+2) FunctionalMessage(220e03,,None)</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>GAC_A79 BL03V8</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>ID_242</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1.6.47 0E04 Link Diagnostics</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>To check value of the DID 0E04</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>1) Send service 0x22 to the camera for the DID 0E04 using physical addressing
+2) Send service 0x22 to the camera for the DID 0E04 using functional addressing</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>1) -
+2) -</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>1) RequestResponse(220e04,,None)
+2) FunctionalMessage(220e04,,None)</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Automated Testcase</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
         <is>
           <t>GAC_A79 BL03V8</t>
         </is>
